--- a/PiZeroAudioI2S-01-Nov-18.xlsx
+++ b/PiZeroAudioI2S-01-Nov-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelofraietta/Documents/eagle/projects/HappyBracketsPiHats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A73570-9485-6946-A7FF-F9248DE3277B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3DF112-B17D-DD49-8079-90E376BB2423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30680" yWindow="1980" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PiZeroAudioI2S-31-Oct-18" sheetId="1" r:id="rId1"/>
@@ -409,13 +409,13 @@
     <t>TXS0102DCURG4</t>
   </si>
   <si>
-    <t>80K</t>
-  </si>
-  <si>
-    <t>PTN0603E8002BST1</t>
-  </si>
-  <si>
     <t>R3, R4, R7, R14</t>
+  </si>
+  <si>
+    <t>76K8</t>
+  </si>
+  <si>
+    <t>RMCF0603FT76K8</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,7 +1379,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1666,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
